--- a/Selenium-Python_Sessions/SeleniumSessions/DataFile.xlsx
+++ b/Selenium-Python_Sessions/SeleniumSessions/DataFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PycharmProjectsSelenium\Selenium-Python_Sessions\SeleniumSessions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB70ADE7-EB08-40B1-B3F8-B6C92E91EED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9BE9C4-313E-4052-8101-1156407EE0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1425" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -362,7 +362,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
